--- a/KN046-301/sheets/Subject_visit_report_KN046-301_checkout.xlsx
+++ b/KN046-301/sheets/Subject_visit_report_KN046-301_checkout.xlsx
@@ -1029,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Error: 该行使用药物匹配失败，受试者 1171004 访视 C4 给药页面多出 419584 418241 419548 419308 423886 421516 421468 426052</t>
+          <t>Error: 该行使用药物匹配失败，受试者 1171004 访视 C4 给药页面多出 419308 419548 426052 421516 421468 419584 423886 418241</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1239,7 +1239,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Error: 该行使用药物匹配失败，受试者 1171004 访视 CC1 visit页面多出 421647 422634 417872 419601 418892 443867 432809 441968 给药页面多出 40053 40064 40057 40067 40070 40066 40051 40058</t>
+          <t>Error: 该行使用药物匹配失败，受试者 1171004 访视 CC1 visit页面多出 422634 441968 421647 419601 432809 443867 418892 417872 给药页面多出 40057 40067 40066 40064 40053 40051 40070 40058</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
